--- a/public/import/DAILY ANDI.xlsx
+++ b/public/import/DAILY ANDI.xlsx
@@ -78,22 +78,22 @@
     <t>12:00</t>
   </si>
   <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-09-20</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
-    <t>2023-09-23</t>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
